--- a/results/apache2.xlsx
+++ b/results/apache2.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t xml:space="preserve">lto</t>
   </si>
@@ -68,6 +69,117 @@
   </si>
   <si>
     <t xml:space="preserve">1000m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total icall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makred icall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marked target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag coloring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target coloring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch coloring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max multi tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.perlbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 19}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 692}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 386}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401.bzip2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 23}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403.gcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 43}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 907}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 291}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445.gobmk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 1822}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 39}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456.hmmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 18}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458.sjeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464.h264ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 34}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 366}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471.omnetpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 107, 2: 14, 1: 2, 3: 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 649, 1: 143, 2: 66, 3: 7}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0: 1478, 2: 197, 1: 118, 3: 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473.astar</t>
   </si>
 </sst>
 </file>
@@ -82,6 +194,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,9 +254,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -165,16 +282,16 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,4 +582,324 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>